--- a/texts/lamb.xlsx
+++ b/texts/lamb.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="135">
   <si>
     <t xml:space="preserve">nr</t>
   </si>
@@ -31,11 +31,15 @@
     <t xml:space="preserve">russian</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+    <t xml:space="preserve">russian_old</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Ден ва</t>
     </r>
@@ -45,6 +49,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">н</t>
     </r>
@@ -53,6 +58,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ъа вук1а бугъуйхоб каласалъи.</t>
     </r>
@@ -64,6 +70,9 @@
     <t xml:space="preserve">Бугъуйхоб каласла бул1о, ден вук1а ишхъе игьи нала гуч1ида.</t>
   </si>
   <si>
+    <t xml:space="preserve">Когда я окончил четвертый класс, я был дома, и мне нечего было делать. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Когда я окончил четвертый класс, я был дома и мне делать было нечего.</t>
   </si>
   <si>
@@ -72,6 +81,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Цер зиуди ила йа</t>
     </r>
@@ -81,6 +91,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">н</t>
     </r>
@@ -89,17 +100,24 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ъа йик1а базара.</t>
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Однажды мать пошла на базар. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Один день мать пошла на базар.</t>
   </si>
   <si>
     <t xml:space="preserve">Базареку бай йессуха йишаб заманади галълъиди кьет1ир гьибгъва санду.</t>
   </si>
   <si>
+    <t xml:space="preserve">Возвратилась она с базара вместе с ягнёнком. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Возвратилась она с базара вместе с ягнёнком.</t>
   </si>
   <si>
@@ -120,6 +138,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Гьуб кьет1ирла ибча, ден мигъилъа ва</t>
     </r>
@@ -129,6 +148,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">н</t>
     </r>
@@ -137,29 +157,42 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ъихо вук1а.</t>
     </r>
   </si>
   <si>
+    <t xml:space="preserve">С этим ягнёнком я ходил в сад. </t>
+  </si>
+  <si>
     <t xml:space="preserve">С этим ягнёнком я ходил в сад.</t>
   </si>
   <si>
     <t xml:space="preserve">Ишкур гьуб кьет1ир гванзо чанчихаб бук1а.</t>
   </si>
   <si>
+    <t xml:space="preserve">Я хорошо за ним ухаживал. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Я укаживал за ним хорошо.</t>
   </si>
   <si>
     <t xml:space="preserve">Гьуб кьет1ир дич1у бехут1у ругьунив.</t>
   </si>
   <si>
+    <t xml:space="preserve">Он ко мне привык.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Он привык ко мне.</t>
   </si>
   <si>
     <t xml:space="preserve">Гьулъий ишкур туканеру кампитабалъи хихаб бук1а.</t>
   </si>
   <si>
+    <t xml:space="preserve">Я его угощал конфетами из магазина.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Угощал я его конфетам из магазина.</t>
   </si>
   <si>
@@ -174,6 +207,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Ден орсса ва</t>
     </r>
@@ -183,6 +217,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">н</t>
     </r>
@@ -191,23 +226,33 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ъала – орсса гъихаб бук1а, гьина гъвала – гьина гъихаб бук1а.</t>
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Когда я выходил, он шел за мной, а когда я оставался внутри, он был со мной. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Когда я выходил, он шел за мной, а когда я остался внутри, он остался со мной.</t>
   </si>
   <si>
     <t xml:space="preserve">Руша эти вуккала, гьикьи кастум бети буккихаб бук1а, гьулълъий гьек1убла дибла кастум бат1а бухи бегъихаб бук1а.</t>
   </si>
   <si>
+    <t xml:space="preserve">Когда приходилось лезть на дерево, я оставлял свой костюм внизу, и он мог отличить мой костюм от чужого.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Когда приходилось залезть на дерево, я оставлял свой костюм внизу, и он мог отличить мой и чужой костюм.</t>
   </si>
   <si>
     <t xml:space="preserve">Гьек1уб кастум гьикьи бета руша этала, бехут1у хъада багьихаб бук1а.</t>
   </si>
   <si>
+    <t xml:space="preserve">Если оставлять чужой костюм, он [догонял] меня. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Если оставлять чужой костюм, он [догонял] меня.</t>
   </si>
   <si>
@@ -216,6 +261,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Гьуб кьет1ирла ибча, инаг1ала ва</t>
     </r>
@@ -225,6 +271,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">н</t>
     </r>
@@ -233,35 +280,51 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ъи вуккихо вук1а, ден гуч1ада ишхъе бигъихаб бук1ич1а. </t>
     </r>
   </si>
   <si>
+    <t xml:space="preserve">С этим ягнёнком я ходил везде, и без меня он ни с кем не оставался. </t>
+  </si>
+  <si>
     <t xml:space="preserve">С этим ягнёнком я ходил везде, и без меня ни с кем он не оставался.</t>
   </si>
   <si>
     <t xml:space="preserve">Цеб зиуди денла кьет1ирла мигъила наъа рук1а.</t>
   </si>
   <si>
+    <t xml:space="preserve">Однажды, мы пошли в сад.</t>
+  </si>
+  <si>
     <t xml:space="preserve">В один день, мы ходили в сад.</t>
   </si>
   <si>
     <t xml:space="preserve">Зиуди ссардала рагьу, ссаквала вук1а, ден рушикьи варахху.</t>
   </si>
   <si>
+    <t xml:space="preserve">Целый день гуляли и уставший я лёг под дерево. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Целый день прогулялись и уставшийся я лёг под деревом.</t>
   </si>
   <si>
     <t xml:space="preserve">Гьуб мусе гъунду вукку ида дийдала бегъич1ада.</t>
   </si>
   <si>
+    <t xml:space="preserve">Я там уснул. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Я уснул на этом месте.</t>
   </si>
   <si>
     <t xml:space="preserve">Кьет1ир бехъут1у ссарду инква бук1а.</t>
   </si>
   <si>
+    <t xml:space="preserve">Ягнёнок был возле меня и ел.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ягнёнок находился возле меня и ел. </t>
   </si>
   <si>
@@ -270,6 +333,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Цеб заманади макьеццуб а</t>
     </r>
@@ -279,6 +343,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">н</t>
     </r>
@@ -287,11 +352,15 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">гьата ида дий кьет1иралъи хъили гьарч1ч1абалъи.</t>
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Как-то раз я услышал крик моего ягнёнка. </t>
+  </si>
+  <si>
     <t xml:space="preserve">В одно время, я услышал крик моего ягнёнка.</t>
   </si>
   <si>
@@ -304,24 +373,36 @@
     <t xml:space="preserve">Хъидилъа ригьуй ххунххулач1у ссеъа бац1а беркьа ида, бехъут1у ссарду хъилида кьет1ирла ида.</t>
   </si>
   <si>
+    <t xml:space="preserve">Проснувшись и осмотревшись, я увидел змею, а кругом бегает и кричит мой ягнёнок. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Проснувшись и посмотрев перед лицом я вижу змею, а кругом бегает и кричит мой ягнёнок.</t>
   </si>
   <si>
     <t xml:space="preserve">Гьула хвасар игьу дени беркуч1уку кьет1иради.</t>
   </si>
   <si>
+    <t xml:space="preserve">Вот так ягнёнок меня спас от змеи. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Вот так меня спас от змеи ягнёнок.</t>
   </si>
   <si>
     <t xml:space="preserve">Гоб бук1а хеъ маъихаб берка.</t>
   </si>
   <si>
+    <t xml:space="preserve">И эта змея была такая, которая заползает в рот. </t>
+  </si>
+  <si>
     <t xml:space="preserve">И эта змея была такая, которая ползает в рот.</t>
   </si>
   <si>
     <t xml:space="preserve">Гьена гьеч1и бесхъекула дий кьет1ир кутакалда идо.</t>
   </si>
   <si>
+    <t xml:space="preserve">После этого мой ягнёнок мне еще больше понравился. </t>
+  </si>
+  <si>
     <t xml:space="preserve">После этого мой ягнёнок мне больше понравился.</t>
   </si>
   <si>
@@ -334,6 +415,9 @@
     <t xml:space="preserve">Це-цеб микъе бекьарала бул1у, караотич1у гьеъа барахху мисихаб бук1а.</t>
   </si>
   <si>
+    <t xml:space="preserve">Он иногда спал возле меня, а иногда находился под кроватью. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Иногда спал возле меня, иногда находился под кроватью.</t>
   </si>
   <si>
@@ -342,6 +426,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Къену бул1ата бук1а, ваъалъи ва</t>
     </r>
@@ -351,6 +436,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">н</t>
     </r>
@@ -359,6 +445,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ъи риу мугъата бук1а.</t>
     </r>
@@ -370,12 +457,18 @@
     <t xml:space="preserve">Гьулълъийлълъи бат1алъи дий къоро бук1ич1а.</t>
   </si>
   <si>
+    <t xml:space="preserve">Мне не захотелось разлучаться с ягнёнком.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Мне не захотелось разлучиться с ягнёнком.</t>
   </si>
   <si>
     <t xml:space="preserve">Илуй къоро бук1а гьуб бела бит1ай.</t>
   </si>
   <si>
+    <t xml:space="preserve">А мама хотела отправить его на пастбище.   </t>
+  </si>
+  <si>
     <t xml:space="preserve">Маме хотелось отправить его на пастбище.</t>
   </si>
   <si>
@@ -394,6 +487,9 @@
     <t xml:space="preserve">Туканна кьет1ирмахи чи-талу рак1варала мугъу ишала т1аму бета.</t>
   </si>
   <si>
+    <t xml:space="preserve">Подумав, как пойти в магазин с ягнёнком, решил оставить его закрыв в комнате. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Подумав, как пойти в магазин с ягнёнком, решил оставить его закрыв в комнате.</t>
   </si>
   <si>
@@ -402,6 +498,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Бит1ив ден къват1а вац1аб заманади, бехут1у чу</t>
     </r>
@@ -411,6 +508,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">н</t>
     </r>
@@ -419,59 +517,87 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">гьа гьибгъва.</t>
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Вышел на улицу, ягнёнок гонится за мной. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Как вышел на улицу, ягнёнок гоняется за мной.</t>
   </si>
   <si>
     <t xml:space="preserve">Туканнала вац1а, ишхъа гъилъа ригьуй, инукулахи гьуб орсса гьибгъва-талу хъиду дени.</t>
   </si>
   <si>
+    <t xml:space="preserve">Когда пришел из магазина, я поинтересовался как он смог вылезть.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Как пришел с магазина, интересовался как он смог вылезть.</t>
   </si>
   <si>
     <t xml:space="preserve">Устурала эту, гьингурла махъо, гьингурахику орсса гьибгъва миса.</t>
   </si>
   <si>
+    <t xml:space="preserve">Оказывается, что он залез на стол, разбил стекло и выскочил из окна.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Поднялся на стол, разбил стекло и вышел с окна. </t>
   </si>
   <si>
     <t xml:space="preserve">Ила йинса ххунххулла бигъо, гьингур махъо-талу гьур зиуди илуди гьуб бела бит1ата бук1а.</t>
   </si>
   <si>
+    <t xml:space="preserve">Мамы […], что разбил окно, и целый день говорит что отправит его на пастбище.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Мамы [...], что разбил окно, и целый день говорит что отправляет его на пастбище.</t>
   </si>
   <si>
     <t xml:space="preserve">Ишкур бит1ай бештич1а.</t>
   </si>
   <si>
+    <t xml:space="preserve">Я был против.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Я был против. </t>
   </si>
   <si>
     <t xml:space="preserve">Ила дихъи сурабу йехъвата йагьу, ч1арг1алъата минла дуб кьет1ирла-талу.</t>
   </si>
   <si>
+    <t xml:space="preserve">Мама поругала меня, мол, надоел ты со своим ягнёнком. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Мама поругала меня, мол, надоел ты со своим ягнёнком.</t>
   </si>
   <si>
     <t xml:space="preserve">Бешеналълъула гьину – гьину берахху мисихаб бук1елълъи, гьингурла махъелълъи, илуди къот1и игьу гьуб бела бит1ай-талу.</t>
   </si>
   <si>
+    <t xml:space="preserve">Иногда он в постели, разбил окно; мать решила его отправить на пастбище.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Находился иногда на постели, разбил окно; мать решила его отправить на пастбище.</t>
   </si>
   <si>
     <t xml:space="preserve">Цеб зиуди илуди дени гьедибалъич1у вехут1у вит1о, кьет1ир санду чи бештич1а еб игьула.</t>
   </si>
   <si>
+    <t xml:space="preserve">В один день, мать отправила меня за телятами, и никак не разрешила мне взять с собой ягнёнка. </t>
+  </si>
+  <si>
     <t xml:space="preserve">В один день, мать отправила меня за телятами, и никак не разрешила мне взять с собой ягнёнка.</t>
   </si>
   <si>
     <t xml:space="preserve">Ишхъа гьедибалъила ибча ден гъилъа ригьуй, кьет1ир дий бехъут1у миса, илулъила дибла боч1уха питна бул1у.</t>
   </si>
   <si>
+    <t xml:space="preserve">Возвращаюсь домой, а моего ягнёнка […] резать, и у нас с мамой случился скандал.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Возвращаясь домой, моего ягнёнка […] резать, и у нас с мамой случился скандал.</t>
   </si>
   <si>
@@ -480,6 +606,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Орссала ва</t>
     </r>
@@ -489,6 +616,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">н</t>
     </r>
@@ -497,6 +625,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ъа, ден к1еда зиуди ишхъа гъич1а, гъунду вагьи щайт1ана ва</t>
     </r>
@@ -506,6 +635,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">н</t>
     </r>
@@ -514,17 +644,24 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ъихо вук1а.</t>
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Я вышел из дома и не возвращался домой два дня, спал в саду местности “Щайт1ане”. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Я вышел из дома и не возвращался домой два дня, спал в саду местности "Щайт1ане".</t>
   </si>
   <si>
     <t xml:space="preserve">Илуди ден вакъайгъалу базареку цебла кьет1ир ибху, амма гьуб кьет1ир дий расдала идихаб бук1ич1а.</t>
   </si>
   <si>
+    <t xml:space="preserve">Мама купила мне другого ягнёнка чтобы меня примирить, но я его никак не любил. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Мама купила мне другого ягнёнка чтобы меня примирить, но я его никак не любил.</t>
   </si>
   <si>
@@ -537,10 +674,16 @@
     <t xml:space="preserve">Дибда кьет1иралъи рикьи хеъала хич1а.</t>
   </si>
   <si>
+    <t xml:space="preserve">Даже не попробовал мясо своего ягнёнка.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Даже не провобовал мясо от своего ягнёнка.</t>
   </si>
   <si>
     <t xml:space="preserve">Гьула бул1у дибла зук1к1у кьет1иралъила гьудуллъи.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Так завершилась моя дружба с маленьким ягнёнком.</t>
   </si>
   <si>
     <t xml:space="preserve">Так завершился моя дружба с маленьким ягнёнком.</t>
@@ -553,11 +696,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -576,6 +720,12 @@
     </font>
     <font>
       <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -623,12 +773,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -649,16 +803,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A32" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.88"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -672,16 +826,22 @@
       <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -689,10 +849,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -700,10 +863,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -711,10 +877,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -722,10 +891,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -733,10 +905,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -744,10 +919,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -755,10 +933,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -766,10 +947,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>20</v>
+        <v>26</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -777,10 +961,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>22</v>
+        <v>29</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -788,10 +975,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>24</v>
+        <v>32</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -799,10 +989,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>26</v>
+        <v>34</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -810,10 +1003,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>28</v>
+        <v>37</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -821,10 +1017,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -832,10 +1031,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>32</v>
+        <v>43</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -843,10 +1045,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>34</v>
+        <v>46</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -854,10 +1059,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>36</v>
+        <v>49</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -865,10 +1073,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>38</v>
+        <v>52</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -876,10 +1087,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>40</v>
+        <v>55</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -887,10 +1101,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>42</v>
+        <v>58</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -898,10 +1115,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>44</v>
+        <v>61</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -909,10 +1129,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>46</v>
+        <v>63</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -920,10 +1143,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>48</v>
+        <v>66</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -931,10 +1157,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>50</v>
+        <v>69</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -942,10 +1171,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>52</v>
+        <v>72</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -953,10 +1185,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>54</v>
+        <v>75</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -964,10 +1199,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>56</v>
+        <v>77</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -975,10 +1213,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>58</v>
+        <v>80</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -986,10 +1227,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>60</v>
+        <v>82</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -997,10 +1241,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>62</v>
+        <v>84</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1008,10 +1255,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>64</v>
+        <v>88</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1019,10 +1269,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>66</v>
+        <v>90</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1030,10 +1283,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>68</v>
+        <v>92</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1041,10 +1297,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>70</v>
+        <v>95</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1052,10 +1311,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>72</v>
+        <v>98</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1063,10 +1325,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>74</v>
+        <v>101</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1074,10 +1339,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>76</v>
+        <v>104</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1085,10 +1353,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>78</v>
+        <v>107</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1096,10 +1367,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>80</v>
+        <v>110</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1107,10 +1381,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>82</v>
+        <v>113</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1118,10 +1395,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>84</v>
+        <v>116</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1129,10 +1409,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>86</v>
+        <v>119</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1140,10 +1423,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>88</v>
+        <v>122</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1151,10 +1437,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>90</v>
+        <v>125</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1162,10 +1451,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>92</v>
+        <v>128</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1173,10 +1465,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>94</v>
+        <v>130</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1184,10 +1479,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>96</v>
+        <v>133</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/texts/lamb.xlsx
+++ b/texts/lamb.xlsx
@@ -41,7 +41,15 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Ден ва</t>
+      <t xml:space="preserve">Ден </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ва</t>
     </r>
     <r>
       <rPr>
@@ -49,8 +57,56 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">н</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ъа</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
         <charset val="1"/>
       </rPr>
+      <t xml:space="preserve"> вукIа бугъуйхоб каласалъи.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Я учился в четвертом классе.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бугъуйхоб каласла булIо, ден вукIа ишхъе игьи нала гучIида.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Когда я окончил четвертый класс, я был дома, и мне нечего было делать. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Когда я окончил четвертый класс, я был дома и мне делать было нечего.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Цер зиуди ила йа</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve">н</t>
     </r>
     <r>
@@ -60,20 +116,35 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">ъа вук1а бугъуйхоб каласалъи.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Я учился в четвертом классе.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Бугъуйхоб каласла бул1о, ден вук1а ишхъе игьи нала гуч1ида.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Когда я окончил четвертый класс, я был дома, и мне нечего было делать. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Когда я окончил четвертый класс, я был дома и мне делать было нечего.</t>
+      <t xml:space="preserve">ъа йикIа базара.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Однажды мать пошла на базар. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Один день мать пошла на базар.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Базареку бай йессуха йишаб заманади галълъиди кьетIир гьибгъва санду.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Возвратилась она с базара вместе с ягнёнком. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Возвратилась она с базара вместе с ягнёнком.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГьечIиссе дий кьетIир гьушта идо букIичIа.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сначала он мне не понравился.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Илуди гьуб кьетIир гьибгъва букIа дий чанчи.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мать купила ягнёнка, чтобы я ухаживал за ним.</t>
   </si>
   <si>
     <r>
@@ -83,7 +154,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Цер зиуди ила йа</t>
+      <t xml:space="preserve">Гьуб кьетIирла ибча, ден мигъилъа ва</t>
     </r>
     <r>
       <rPr>
@@ -91,8 +162,75 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">н</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
         <charset val="1"/>
       </rPr>
+      <t xml:space="preserve">ъихо вукIа.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">С этим ягнёнком я ходил в сад. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">С этим ягнёнком я ходил в сад.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ишкур гьуб кьетIир гванзо чанчихаб букIа.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Я хорошо за ним ухаживал. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Я укаживал за ним хорошо.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Гьуб кьетIир дичIу бехутIу ругьунив.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Он ко мне привык.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Он привык ко мне.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Гьулъий ишкур туканеру кампитабалъи хихаб букIа.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Я его угощал конфетами из магазина.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Угощал я его конфетам из магазина.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Гьулълъа бехутIу гьула чанчихаб букIаллъару бесхъа гьуб денлъи мусе хисараб гъунду багьихаб букIичIа.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Потом я кормил его, поэтому он не оставался без меня, всегда ходил со мной. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Ден орсса ва</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve">н</t>
     </r>
     <r>
@@ -102,35 +240,32 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">ъа йик1а базара.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Однажды мать пошла на базар. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Один день мать пошла на базар.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Базареку бай йессуха йишаб заманади галълъиди кьет1ир гьибгъва санду.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Возвратилась она с базара вместе с ягнёнком. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Возвратилась она с базара вместе с ягнёнком.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Гьеч1иссе дий кьет1ир гьушта идо бук1ич1а.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сначала он мне не понравился.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Илуди гьуб кьет1ир гьибгъва бук1а дий чанчи.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Мать купила ягнёнка, чтобы я ухаживал за ним.</t>
+      <t xml:space="preserve">ъала – орсса гъихаб букIа, гьина гъвала – гьина гъихаб букIа.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Когда я выходил, он шел за мной, а когда я оставался внутри, он был со мной. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Когда я выходил, он шел за мной, а когда я остался внутри, он остался со мной.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Руша эти вуккала, гьикьи кастум бети буккихаб букIа, гьулълъий гьекIубла дибла кастум батIа бухи бегъихаб букIа.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Когда приходилось лезть на дерево, я оставлял свой костюм внизу, и он мог отличить мой костюм от чужого.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Когда приходилось залезть на дерево, я оставлял свой костюм внизу, и он мог отличить мой и чужой костюм.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГьекIуб кастум гьикьи бета руша этала, бехутIу хъада багьихаб букIа.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Если оставлять чужой костюм, он [догонял] меня. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Если оставлять чужой костюм, он [догонял] меня.</t>
   </si>
   <si>
     <r>
@@ -140,7 +275,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Гьуб кьет1ирла ибча, ден мигъилъа ва</t>
+      <t xml:space="preserve">Гьуб кьетIирла ибча, инагIала ва</t>
     </r>
     <r>
       <rPr>
@@ -148,8 +283,144 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">н</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
         <charset val="1"/>
       </rPr>
+      <t xml:space="preserve">ъи вуккихо вукIа, ден гучIада ишхъе бигъихаб букIичIа. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">С этим ягнёнком я ходил везде, и без меня он ни с кем не оставался. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">С этим ягнёнком я ходил везде, и без меня ни с кем он не оставался.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Цеб зиуди денла кьетIирла мигъила наъа рукIа.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Однажды, мы пошли в сад.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В один день, мы ходили в сад.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Зиуди ссардала рагьу, ссаквала вукIа, ден рушикьи варахху.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Целый день гуляли и уставший я лёг под дерево. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Целый день прогулялись и уставшийся я лёг под деревом.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Гьуб мусе гъунду вукку ида дийдала бегъичIада.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Я там уснул. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Я уснул на этом месте.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КьетIир бехъутIу ссарду инква букIа.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ягнёнок был возле меня и ел.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ягнёнок находился возле меня и ел. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Цеб заманади макьеццуб ангьата ида дий кьетIиралъи хъили гьарчIчIабалъи.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как-то раз я услышал крик моего ягнёнка. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">В одно время, я услышал крик моего ягнёнка.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Цеб анщи вила дени.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В одно мгновение я проснулся.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Хъидилъа ригьуй ххунххулачIу ссеъа бацIа беркьа ида, бехъутIу ссарду хъилида кьетIирла ида.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проснувшись и осмотревшись, я увидел змею, а кругом бегает и кричит мой ягнёнок. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проснувшись и посмотрев перед лицом я вижу змею, а кругом бегает и кричит мой ягнёнок.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Гьула хвасар игьу дени беркучIуку кьетIиради.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вот так ягнёнок меня спас от змеи. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вот так меня спас от змеи ягнёнок.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Гоб букIа хеъ маъихаб берка.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">И эта змея была такая, которая заползает в рот. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">И эта змея была такая, которая ползает в рот.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Гьена гьечIи бесхъекула дий кьетIир кутакалда идо.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">После этого мой ягнёнок мне еще больше понравился. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">После этого мой ягнёнок мне больше понравился.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Гьулълъару бесхъа чанчихаб букIа ишкур гьуб караотичIу бекьару.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">После этого я кормил ягнёнка возле своей кровати.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Це-цеб микъе бекьарала булIу, караотичIу гьеъа барахху мисихаб букIа.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Он иногда спал возле меня, а иногда находился под кроватью. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Иногда спал возле меня, иногда находился под кроватью.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Къену булIата букIа, ваъалъи ва</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve">н</t>
     </r>
     <r>
@@ -159,47 +430,131 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">ъихо вук1а.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">С этим ягнёнком я ходил в сад. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">С этим ягнёнком я ходил в сад.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ишкур гьуб кьет1ир гванзо чанчихаб бук1а.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Я хорошо за ним ухаживал. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Я укаживал за ним хорошо.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Гьуб кьет1ир дич1у бехут1у ругьунив.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Он ко мне привык.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Он привык ко мне.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Гьулъий ишкур туканеру кампитабалъи хихаб бук1а.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Я его угощал конфетами из магазина.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Угощал я его конфетам из магазина.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Гьулълъа бехут1у гьула чанчихаб бук1аллъару бесхъа гьуб денлъи мусе хисараб гъунду багьихаб бук1ич1а.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Потом я кормил его, поэтому он не оставался без меня, всегда ходил со мной. </t>
+      <t xml:space="preserve">ъи риу мугъата букIа.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Заканчивалось лето и приближалось начало учебного года.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Гьулълъийлълъи батIалъи дий къоро букIичIа.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мне не захотелось разлучаться с ягнёнком.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мне не захотелось разлучиться с ягнёнком.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Илуй къоро букIа гьуб бела битIай.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">А мама хотела отправить его на пастбище.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Маме хотелось отправить его на пастбище.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ищи гьелълъичIуру гьеъа целуйцел ххиралъута рукIа.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мы с каждым днем привыкли друг к другу и не хотелись расставаться.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Цер зиуди ден туканна хъучибалъихи велIа вукIа.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В один день я собирался в магазин купить учебники.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Туканна кьетIирмахи чи-талу ракIварала мугъу ишала тIаму бета.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Подумав, как пойти в магазин с ягнёнком, решил оставить его закрыв в комнате. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Подумав, как пойти в магазин с ягнёнком, решил оставить его закрыв в комнате.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БитIив ден къватIа вацIаб заманади, бехутIу чунгьа гьибгъва.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вышел на улицу, ягнёнок гонится за мной. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как вышел на улицу, ягнёнок гоняется за мной.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Туканнала вацIа, ишхъа гъилъа ригьуй, инукулахи гьуб орсса гьибгъва-талу хъиду дени.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Когда пришел из магазина, я поинтересовался как он смог вылезть.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как пришел с магазина, интересовался как он смог вылезть.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Устурала эту, гьингурла махъо, гьингурахику орсса гьибгъва миса.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оказывается, что он залез на стол, разбил стекло и выскочил из окна.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Поднялся на стол, разбил стекло и вышел с окна. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ила йинса ххунххулла бигъо, гьингур махъо-талу гьур зиуди илуди гьуб бела битIата букIа.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мамы […], что разбил окно, и целый день говорит что отправит его на пастбище.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мамы [...], что разбил окно, и целый день говорит что отправляет его на пастбище.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ишкур битIай бештичIа.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Я был против.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Я был против. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ила дихъи сурабу йехъвата йагьу, чIаргIалъата минла дуб кьетIирла-талу.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мама поругала меня, мол, надоел ты со своим ягнёнком. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мама поругала меня, мол, надоел ты со своим ягнёнком.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бешеналълъула гьину – гьину берахху мисихаб букIелълъи, гьингурла махъелълъи, илуди къотIи игьу гьуб бела битIай-талу.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Иногда он в постели, разбил окно; мать решила его отправить на пастбище.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Находился иногда на постели, разбил окно; мать решила его отправить на пастбище.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Цеб зиуди илуди дени гьедибалъичIу вехутIу витIо, кьетIир санду чи бештичIа еб игьула.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В один день, мать отправила меня за телятами, и никак не разрешила мне взять с собой ягнёнка. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">В один день, мать отправила меня за телятами, и никак не разрешила мне взять с собой ягнёнка.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ишхъа гьедибалъила ибча ден гъилъа ригьуй, кьетIир дий бехъутIу миса, илулъила дибла бочIуха питна булIу.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Возвращаюсь домой, а моего ягнёнка […] резать, и у нас с мамой случился скандал.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Возвращаясь домой, моего ягнёнка […] резать, и у нас с мамой случился скандал.</t>
   </si>
   <si>
     <r>
@@ -209,7 +564,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Ден орсса ва</t>
+      <t xml:space="preserve">Орссала ва</t>
     </r>
     <r>
       <rPr>
@@ -217,8 +572,25 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">н</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
         <charset val="1"/>
       </rPr>
+      <t xml:space="preserve">ъа, ден кIеда зиуди ишхъа гъичIа, гъунду вагьи щайтIана ва</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve">н</t>
     </r>
     <r>
@@ -228,425 +600,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">ъала – орсса гъихаб бук1а, гьина гъвала – гьина гъихаб бук1а.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Когда я выходил, он шел за мной, а когда я оставался внутри, он был со мной. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Когда я выходил, он шел за мной, а когда я остался внутри, он остался со мной.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Руша эти вуккала, гьикьи кастум бети буккихаб бук1а, гьулълъий гьек1убла дибла кастум бат1а бухи бегъихаб бук1а.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Когда приходилось лезть на дерево, я оставлял свой костюм внизу, и он мог отличить мой костюм от чужого.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Когда приходилось залезть на дерево, я оставлял свой костюм внизу, и он мог отличить мой и чужой костюм.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Гьек1уб кастум гьикьи бета руша этала, бехут1у хъада багьихаб бук1а.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Если оставлять чужой костюм, он [догонял] меня. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Если оставлять чужой костюм, он [догонял] меня.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Гьуб кьет1ирла ибча, инаг1ала ва</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">н</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ъи вуккихо вук1а, ден гуч1ада ишхъе бигъихаб бук1ич1а. </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">С этим ягнёнком я ходил везде, и без меня он ни с кем не оставался. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">С этим ягнёнком я ходил везде, и без меня ни с кем он не оставался.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Цеб зиуди денла кьет1ирла мигъила наъа рук1а.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Однажды, мы пошли в сад.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">В один день, мы ходили в сад.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Зиуди ссардала рагьу, ссаквала вук1а, ден рушикьи варахху.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Целый день гуляли и уставший я лёг под дерево. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Целый день прогулялись и уставшийся я лёг под деревом.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Гьуб мусе гъунду вукку ида дийдала бегъич1ада.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Я там уснул. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Я уснул на этом месте.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кьет1ир бехъут1у ссарду инква бук1а.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ягнёнок был возле меня и ел.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ягнёнок находился возле меня и ел. </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Цеб заманади макьеццуб а</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">н</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">гьата ида дий кьет1иралъи хъили гьарч1ч1абалъи.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Как-то раз я услышал крик моего ягнёнка. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">В одно время, я услышал крик моего ягнёнка.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Цеб анщи вила дени.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">В одно мгновение я проснулся.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Хъидилъа ригьуй ххунххулач1у ссеъа бац1а беркьа ида, бехъут1у ссарду хъилида кьет1ирла ида.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Проснувшись и осмотревшись, я увидел змею, а кругом бегает и кричит мой ягнёнок. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Проснувшись и посмотрев перед лицом я вижу змею, а кругом бегает и кричит мой ягнёнок.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Гьула хвасар игьу дени беркуч1уку кьет1иради.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вот так ягнёнок меня спас от змеи. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вот так меня спас от змеи ягнёнок.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Гоб бук1а хеъ маъихаб берка.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">И эта змея была такая, которая заползает в рот. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">И эта змея была такая, которая ползает в рот.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Гьена гьеч1и бесхъекула дий кьет1ир кутакалда идо.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">После этого мой ягнёнок мне еще больше понравился. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">После этого мой ягнёнок мне больше понравился.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Гьулълъару бесхъа чанчихаб бук1а ишкур гьуб караотич1у бекьару.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">После этого я кормил ягнёнка возле своей кровати.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Це-цеб микъе бекьарала бул1у, караотич1у гьеъа барахху мисихаб бук1а.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Он иногда спал возле меня, а иногда находился под кроватью. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Иногда спал возле меня, иногда находился под кроватью.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Къену бул1ата бук1а, ваъалъи ва</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">н</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ъи риу мугъата бук1а.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Заканчивалось лето и приближалось начало учебного года.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Гьулълъийлълъи бат1алъи дий къоро бук1ич1а.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Мне не захотелось разлучаться с ягнёнком.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Мне не захотелось разлучиться с ягнёнком.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Илуй къоро бук1а гьуб бела бит1ай.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">А мама хотела отправить его на пастбище.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Маме хотелось отправить его на пастбище.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ищи гьелълъич1уру гьеъа целуйцел ххиралъута рук1а.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Мы с каждым днем привыкли друг к другу и не хотелись расставаться.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Цер зиуди ден туканна хъучибалъихи вел1а вук1а.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">В один день я собирался в магазин купить учебники.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Туканна кьет1ирмахи чи-талу рак1варала мугъу ишала т1аму бета.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Подумав, как пойти в магазин с ягнёнком, решил оставить его закрыв в комнате. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Подумав, как пойти в магазин с ягнёнком, решил оставить его закрыв в комнате.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Бит1ив ден къват1а вац1аб заманади, бехут1у чу</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">н</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">гьа гьибгъва.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Вышел на улицу, ягнёнок гонится за мной. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Как вышел на улицу, ягнёнок гоняется за мной.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Туканнала вац1а, ишхъа гъилъа ригьуй, инукулахи гьуб орсса гьибгъва-талу хъиду дени.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Когда пришел из магазина, я поинтересовался как он смог вылезть.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Как пришел с магазина, интересовался как он смог вылезть.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Устурала эту, гьингурла махъо, гьингурахику орсса гьибгъва миса.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Оказывается, что он залез на стол, разбил стекло и выскочил из окна.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Поднялся на стол, разбил стекло и вышел с окна. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ила йинса ххунххулла бигъо, гьингур махъо-талу гьур зиуди илуди гьуб бела бит1ата бук1а.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Мамы […], что разбил окно, и целый день говорит что отправит его на пастбище.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Мамы [...], что разбил окно, и целый день говорит что отправляет его на пастбище.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ишкур бит1ай бештич1а.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Я был против.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Я был против. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ила дихъи сурабу йехъвата йагьу, ч1арг1алъата минла дуб кьет1ирла-талу.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Мама поругала меня, мол, надоел ты со своим ягнёнком. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Мама поругала меня, мол, надоел ты со своим ягнёнком.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Бешеналълъула гьину – гьину берахху мисихаб бук1елълъи, гьингурла махъелълъи, илуди къот1и игьу гьуб бела бит1ай-талу.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Иногда он в постели, разбил окно; мать решила его отправить на пастбище.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Находился иногда на постели, разбил окно; мать решила его отправить на пастбище.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Цеб зиуди илуди дени гьедибалъич1у вехут1у вит1о, кьет1ир санду чи бештич1а еб игьула.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">В один день, мать отправила меня за телятами, и никак не разрешила мне взять с собой ягнёнка. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">В один день, мать отправила меня за телятами, и никак не разрешила мне взять с собой ягнёнка.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ишхъа гьедибалъила ибча ден гъилъа ригьуй, кьет1ир дий бехъут1у миса, илулъила дибла боч1уха питна бул1у.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Возвращаюсь домой, а моего ягнёнка […] резать, и у нас с мамой случился скандал.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Возвращаясь домой, моего ягнёнка […] резать, и у нас с мамой случился скандал.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Орссала ва</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">н</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ъа, ден к1еда зиуди ишхъа гъич1а, гъунду вагьи щайт1ана ва</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">н</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ъихо вук1а.</t>
+      <t xml:space="preserve">ъихо вукIа.</t>
     </r>
   </si>
   <si>
@@ -656,7 +610,7 @@
     <t xml:space="preserve">Я вышел из дома и не возвращался домой два дня, спал в саду местности "Щайт1ане".</t>
   </si>
   <si>
-    <t xml:space="preserve">Илуди ден вакъайгъалу базареку цебла кьет1ир ибху, амма гьуб кьет1ир дий расдала идихаб бук1ич1а.</t>
+    <t xml:space="preserve">Илуди ден вакъайгъалу базареку цебла кьетIир ибху, амма гьуб кьетIир дий расдала идихаб букIичIа.</t>
   </si>
   <si>
     <t xml:space="preserve">Мама купила мне другого ягнёнка чтобы меня примирить, но я его никак не любил. </t>
@@ -665,13 +619,13 @@
     <t xml:space="preserve">Мама купила мне другого ягнёнка чтобы меня примирить, но я его никак не любил.</t>
   </si>
   <si>
-    <t xml:space="preserve">Гьуб кьет1ирач1у дени векьарада къиндихо вук1ич1а.</t>
+    <t xml:space="preserve">Гьуб кьетIирачIу дени векьарада къиндихо вукIичIа.</t>
   </si>
   <si>
     <t xml:space="preserve">[…]</t>
   </si>
   <si>
-    <t xml:space="preserve">Дибда кьет1иралъи рикьи хеъала хич1а.</t>
+    <t xml:space="preserve">Дибда кьетIиралъи рикьи хеъала хичIа.</t>
   </si>
   <si>
     <t xml:space="preserve">Даже не попробовал мясо своего ягнёнка.</t>
@@ -680,7 +634,7 @@
     <t xml:space="preserve">Даже не провобовал мясо от своего ягнёнка.</t>
   </si>
   <si>
-    <t xml:space="preserve">Гьула бул1у дибла зук1к1у кьет1иралъила гьудуллъи.</t>
+    <t xml:space="preserve">Гьула булIу дибла зукIкIу кьетIиралъила гьудуллъи.</t>
   </si>
   <si>
     <t xml:space="preserve">Так завершилась моя дружба с маленьким ягнёнком.</t>
@@ -719,13 +673,12 @@
       <family val="0"/>
     </font>
     <font>
-      <vertAlign val="superscript"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
+      <vertAlign val="superscript"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -773,16 +726,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -805,14 +754,14 @@
   </sheetPr>
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A32" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="56.28"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -907,14 +856,14 @@
       <c r="B7" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
@@ -984,7 +933,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>12</v>
       </c>
@@ -1026,7 +975,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>15</v>
       </c>
@@ -1096,7 +1045,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>20</v>
       </c>
@@ -1243,7 +1192,7 @@
       <c r="B31" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D31" s="0" t="s">
@@ -1292,7 +1241,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
         <v>34</v>
       </c>
@@ -1418,7 +1367,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
         <v>43</v>
       </c>
